--- a/raman_fitting/results/DW/Fitting_Components/Extra_4peaks_DW38C.xlsx
+++ b/raman_fitting/results/DW/Fitting_Components/Extra_4peaks_DW38C.xlsx
@@ -64,28 +64,28 @@
     <t>DW38C</t>
   </si>
   <si>
-    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman_fitting/raman_fitting/datafiles/DW38C_pos1.txt</t>
-  </si>
-  <si>
-    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman_fitting/raman_fitting/datafiles/DW38C_pos2.txt</t>
-  </si>
-  <si>
-    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman_fitting/raman_fitting/datafiles/DW38C_pos3.txt</t>
-  </si>
-  <si>
-    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman_fitting/raman_fitting/datafiles/DW38C_pos4.txt</t>
-  </si>
-  <si>
-    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman_fitting/raman_fitting/results/DW</t>
-  </si>
-  <si>
-    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman_fitting/raman_fitting/results/DW/Fitting_Plots</t>
-  </si>
-  <si>
-    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman_fitting/raman_fitting/results/DW/Fitting_Components</t>
-  </si>
-  <si>
-    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman_fitting/raman_fitting/results/DW/Raw_Data</t>
+    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman-fitting/raman_fitting/datafiles/DW38C_pos1.txt</t>
+  </si>
+  <si>
+    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman-fitting/raman_fitting/datafiles/DW38C_pos2.txt</t>
+  </si>
+  <si>
+    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman-fitting/raman_fitting/datafiles/DW38C_pos3.txt</t>
+  </si>
+  <si>
+    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman-fitting/raman_fitting/datafiles/DW38C_pos4.txt</t>
+  </si>
+  <si>
+    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman-fitting/raman_fitting/results/DW</t>
+  </si>
+  <si>
+    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman-fitting/raman_fitting/results/DW/Fitting_Plots</t>
+  </si>
+  <si>
+    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman-fitting/raman_fitting/results/DW/Fitting_Components</t>
+  </si>
+  <si>
+    <t>/mnt/DATA/EKTS_CloudStation/CloudStation/Experimental data/Python_Scripts/DWpy/python_introduction/Raman/1repos/raman-fitting/raman_fitting/results/DW/Raw_Data</t>
   </si>
   <si>
     <t>simple</t>
@@ -511,7 +511,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -599,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="D5">
         <v>4</v>
